--- a/Data/Commodore 64 Breadbin/250407/Data_250407.xlsx
+++ b/Data/Commodore 64 Breadbin/250407/Data_250407.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\Commodore 64 Breadbin\250407\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64 Breadbin\250407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0595C95-7758-402F-ADBF-03850F64D16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8729A2-70F8-4439-9099-1EF2B091C068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="5" r:id="rId1"/>
@@ -31,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="194">
   <si>
     <t>CIA 1</t>
   </si>
@@ -513,9 +511,6 @@
   </si>
   <si>
     <t>1000pF</t>
-  </si>
-  <si>
-    <t>&lt;--- the two "unknown" columns are not required - they just hold X/Y coordinates for calculating Width/Height</t>
   </si>
   <si>
     <t>pinout\PAL 6569.png</t>
@@ -611,9 +606,6 @@
     <t>Image and component highlight bounds</t>
   </si>
   <si>
-    <t>Images\Schematics 1 of 2 (251138).gif</t>
-  </si>
-  <si>
     <t>Images\Schematics 2 of 2 (251138).gif</t>
   </si>
   <si>
@@ -621,13 +613,25 @@
   </si>
   <si>
     <t>Images\C64 250407 PCB Replica.1.1.B.png</t>
+  </si>
+  <si>
+    <t>Images\Schematics 1 of 2 (251138).png</t>
+  </si>
+  <si>
+    <t>CN5</t>
+  </si>
+  <si>
+    <t>CN6</t>
+  </si>
+  <si>
+    <t>RF Modulator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,6 +660,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -693,11 +702,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -759,10 +769,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{FA6AF091-3410-4C32-9089-BD1AA5556E46}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1076,7 +1088,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB56770-8233-4B8D-A81F-EDDC9713B054}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1087,7 +1101,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1105,11 +1119,11 @@
     </row>
     <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
@@ -1123,16 +1137,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1140,7 +1154,7 @@
         <v>105</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>153</v>
@@ -1155,7 +1169,7 @@
         <v>0.65</v>
       </c>
       <c r="H5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1163,7 +1177,7 @@
         <v>106</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>153</v>
@@ -1178,15 +1192,15 @@
         <v>0.65</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>153</v>
@@ -1201,15 +1215,15 @@
         <v>0.65</v>
       </c>
       <c r="H7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>153</v>
@@ -1240,7 +1254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1256,13 +1270,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="10" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1291,7 +1305,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1377,7 +1391,7 @@
         <v>73</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1641,7 +1655,7 @@
         <v>9</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>99</v>
@@ -2227,9 +2241,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD30A18-04B8-42E0-9E13-F4ED24029528}">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2241,15 +2255,15 @@
     <col min="6" max="6" width="8.88671875" style="4" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="10" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
@@ -2257,7 +2271,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -2277,94 +2291,69 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="4">
-        <v>1206</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2039</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" ref="E5:E36" si="0">G5-C5</f>
-        <v>42</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" ref="F5:F36" si="1">H5-D5</f>
-        <v>43</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1248</v>
-      </c>
-      <c r="H5" s="4">
-        <v>2082</v>
-      </c>
-      <c r="J5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="23">
+        <v>1178</v>
+      </c>
+      <c r="D5" s="23">
+        <v>2035</v>
+      </c>
+      <c r="E5" s="23">
+        <v>81</v>
+      </c>
+      <c r="F5" s="23">
+        <v>91</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1461</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2036</v>
+      </c>
+      <c r="E6" s="4">
+        <v>79</v>
+      </c>
+      <c r="F6" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="4">
-        <v>1751</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2043</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1806</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="C7" s="4">
-        <v>1484</v>
+        <v>1737</v>
       </c>
       <c r="D7" s="4">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1528</v>
-      </c>
-      <c r="H7" s="4">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
@@ -2372,27 +2361,19 @@
         <v>127</v>
       </c>
       <c r="C8" s="4">
-        <v>2558</v>
+        <v>2549</v>
       </c>
       <c r="D8" s="4">
         <v>1649</v>
       </c>
       <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="G8" s="4">
-        <v>2620</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>105</v>
       </c>
@@ -2400,27 +2381,19 @@
         <v>138</v>
       </c>
       <c r="C9" s="4">
-        <v>3089</v>
+        <v>3077</v>
       </c>
       <c r="D9" s="4">
-        <v>1737</v>
+        <v>1723</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="G9" s="4">
-        <v>3190</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>105</v>
       </c>
@@ -2428,27 +2401,19 @@
         <v>139</v>
       </c>
       <c r="C10" s="4">
-        <v>3092</v>
+        <v>3073</v>
       </c>
       <c r="D10" s="4">
-        <v>1821</v>
+        <v>1811</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" si="0"/>
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="G10" s="4">
-        <v>3189</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>105</v>
       </c>
@@ -2456,27 +2421,19 @@
         <v>140</v>
       </c>
       <c r="C11" s="4">
-        <v>3478</v>
+        <v>3468</v>
       </c>
       <c r="D11" s="4">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="G11" s="4">
-        <v>3547</v>
-      </c>
-      <c r="H11" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>105</v>
       </c>
@@ -2484,27 +2441,19 @@
         <v>142</v>
       </c>
       <c r="C12" s="4">
-        <v>3756</v>
+        <v>3739</v>
       </c>
       <c r="D12" s="4">
-        <v>1701</v>
+        <v>1690</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="0"/>
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="G12" s="4">
-        <v>3829</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>105</v>
       </c>
@@ -2512,27 +2461,19 @@
         <v>123</v>
       </c>
       <c r="C13" s="4">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="D13" s="4">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="G13" s="4">
-        <v>2142</v>
-      </c>
-      <c r="H13" s="4">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>105</v>
       </c>
@@ -2540,27 +2481,19 @@
         <v>149</v>
       </c>
       <c r="C14" s="4">
-        <v>3323</v>
+        <v>3314</v>
       </c>
       <c r="D14" s="4">
         <v>642</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="G14" s="4">
-        <v>3414</v>
-      </c>
-      <c r="H14" s="4">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>105</v>
       </c>
@@ -2568,27 +2501,19 @@
         <v>150</v>
       </c>
       <c r="C15" s="4">
-        <v>3429</v>
+        <v>3424</v>
       </c>
       <c r="D15" s="4">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="0"/>
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="G15" s="4">
-        <v>3506</v>
-      </c>
-      <c r="H15" s="4">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>105</v>
       </c>
@@ -2596,27 +2521,19 @@
         <v>119</v>
       </c>
       <c r="C16" s="4">
-        <v>1835</v>
+        <v>1829</v>
       </c>
       <c r="D16" s="4">
-        <v>2771</v>
+        <v>2756</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="0"/>
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1933</v>
-      </c>
-      <c r="H16" s="4">
-        <v>2837</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>105</v>
       </c>
@@ -2624,27 +2541,19 @@
         <v>121</v>
       </c>
       <c r="C17" s="4">
-        <v>1775</v>
+        <v>1762</v>
       </c>
       <c r="D17" s="4">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="0"/>
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1864</v>
-      </c>
-      <c r="H17" s="4">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
@@ -2652,27 +2561,19 @@
         <v>117</v>
       </c>
       <c r="C18" s="4">
-        <v>1547</v>
+        <v>1531</v>
       </c>
       <c r="D18" s="4">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="0"/>
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1633</v>
-      </c>
-      <c r="H18" s="4">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>105</v>
       </c>
@@ -2680,27 +2581,19 @@
         <v>151</v>
       </c>
       <c r="C19" s="4">
-        <v>1306</v>
+        <v>1298</v>
       </c>
       <c r="D19" s="4">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="0"/>
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="G19" s="4">
-        <v>1400</v>
-      </c>
-      <c r="H19" s="4">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>105</v>
       </c>
@@ -2708,27 +2601,19 @@
         <v>108</v>
       </c>
       <c r="C20" s="4">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="D20" s="4">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="0"/>
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1168</v>
-      </c>
-      <c r="H20" s="4">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>105</v>
       </c>
@@ -2736,27 +2621,19 @@
         <v>107</v>
       </c>
       <c r="C21" s="4">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D21" s="4">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="G21" s="4">
-        <v>970</v>
-      </c>
-      <c r="H21" s="4">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>105</v>
       </c>
@@ -2764,27 +2641,19 @@
         <v>132</v>
       </c>
       <c r="C22" s="4">
-        <v>2509</v>
+        <v>2495</v>
       </c>
       <c r="D22" s="4">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" si="0"/>
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="G22" s="4">
-        <v>2563</v>
-      </c>
-      <c r="H22" s="4">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -2792,27 +2661,19 @@
         <v>126</v>
       </c>
       <c r="C23" s="4">
-        <v>2245</v>
+        <v>2239</v>
       </c>
       <c r="D23" s="4">
-        <v>2310</v>
+        <v>2303</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="0"/>
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="G23" s="4">
-        <v>2300</v>
-      </c>
-      <c r="H23" s="4">
-        <v>2377</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>105</v>
       </c>
@@ -2820,27 +2681,19 @@
         <v>128</v>
       </c>
       <c r="C24" s="4">
-        <v>2520</v>
+        <v>2498</v>
       </c>
       <c r="D24" s="4">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="G24" s="4">
-        <v>2571</v>
-      </c>
-      <c r="H24" s="4">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -2848,27 +2701,19 @@
         <v>112</v>
       </c>
       <c r="C25" s="4">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D25" s="4">
-        <v>2442</v>
+        <v>2437</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="0"/>
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="G25" s="4">
-        <v>1533</v>
-      </c>
-      <c r="H25" s="4">
-        <v>2493</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>105</v>
       </c>
@@ -2876,27 +2721,19 @@
         <v>145</v>
       </c>
       <c r="C26" s="4">
-        <v>3630</v>
+        <v>3632</v>
       </c>
       <c r="D26" s="4">
-        <v>1486</v>
+        <v>1481</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="0"/>
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="G26" s="4">
-        <v>3727</v>
-      </c>
-      <c r="H26" s="4">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
@@ -2904,27 +2741,19 @@
         <v>141</v>
       </c>
       <c r="C27" s="4">
-        <v>3556</v>
+        <v>3554</v>
       </c>
       <c r="D27" s="4">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="0"/>
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="G27" s="4">
-        <v>3655</v>
-      </c>
-      <c r="H27" s="4">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>105</v>
       </c>
@@ -2932,27 +2761,19 @@
         <v>122</v>
       </c>
       <c r="C28" s="4">
-        <v>1895</v>
+        <v>1879</v>
       </c>
       <c r="D28" s="4">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="0"/>
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="G28" s="4">
-        <v>1978</v>
-      </c>
-      <c r="H28" s="4">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>105</v>
       </c>
@@ -2960,27 +2781,19 @@
         <v>118</v>
       </c>
       <c r="C29" s="4">
-        <v>1663</v>
+        <v>1648</v>
       </c>
       <c r="D29" s="4">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" si="0"/>
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="G29" s="4">
-        <v>1747</v>
-      </c>
-      <c r="H29" s="4">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>105</v>
       </c>
@@ -2988,27 +2801,19 @@
         <v>116</v>
       </c>
       <c r="C30" s="4">
-        <v>1431</v>
+        <v>1417</v>
       </c>
       <c r="D30" s="4">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="0"/>
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="G30" s="4">
-        <v>1515</v>
-      </c>
-      <c r="H30" s="4">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>105</v>
       </c>
@@ -3016,1259 +2821,899 @@
         <v>115</v>
       </c>
       <c r="C31" s="4">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="D31" s="4">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F31" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2084</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1339</v>
+      </c>
+      <c r="E32" s="4">
+        <v>100</v>
+      </c>
+      <c r="F32" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="4">
+        <v>3148</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1596</v>
+      </c>
+      <c r="E33" s="4">
+        <v>82</v>
+      </c>
+      <c r="F33" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="4">
+        <v>3527</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1481</v>
+      </c>
+      <c r="E34" s="4">
+        <v>100</v>
+      </c>
+      <c r="F34" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="4">
+        <v>3418</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1484</v>
+      </c>
+      <c r="E35" s="4">
+        <v>91</v>
+      </c>
+      <c r="F35" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="4">
+        <v>3416</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1367</v>
+      </c>
+      <c r="E36" s="4">
+        <v>90</v>
+      </c>
+      <c r="F36" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="4">
+        <v>3534</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1360</v>
+      </c>
+      <c r="E37" s="4">
+        <v>90</v>
+      </c>
+      <c r="F37" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2771</v>
+      </c>
+      <c r="D38" s="4">
+        <v>919</v>
+      </c>
+      <c r="E38" s="4">
+        <v>36</v>
+      </c>
+      <c r="F38" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2809</v>
+      </c>
+      <c r="D39" s="4">
+        <v>936</v>
+      </c>
+      <c r="E39" s="4">
+        <v>61</v>
+      </c>
+      <c r="F39" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="4">
+        <v>3058</v>
+      </c>
+      <c r="D40" s="4">
+        <v>643</v>
+      </c>
+      <c r="E40" s="4">
+        <v>96</v>
+      </c>
+      <c r="F40" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="4">
+        <v>3629</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1360</v>
+      </c>
+      <c r="E41" s="4">
+        <v>109</v>
+      </c>
+      <c r="F41" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="4">
+        <v>3061</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1598</v>
+      </c>
+      <c r="E42" s="4">
+        <v>80</v>
+      </c>
+      <c r="F42" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="4">
+        <v>2681</v>
+      </c>
+      <c r="D43" s="4">
+        <v>921</v>
+      </c>
+      <c r="E43" s="4">
+        <v>87</v>
+      </c>
+      <c r="F43" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="4">
+        <v>2977</v>
+      </c>
+      <c r="D44" s="4">
+        <v>619</v>
+      </c>
+      <c r="E44" s="4">
+        <v>73</v>
+      </c>
+      <c r="F44" s="4">
         <v>89</v>
       </c>
-      <c r="F31" s="4">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="G31" s="4">
-        <v>1285</v>
-      </c>
-      <c r="H31" s="4">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="4">
-        <v>917</v>
-      </c>
-      <c r="D32" s="4">
-        <v>940</v>
-      </c>
-      <c r="E32" s="4">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="4">
+        <v>2303</v>
+      </c>
+      <c r="D45" s="4">
+        <v>601</v>
+      </c>
+      <c r="E45" s="4">
+        <v>141</v>
+      </c>
+      <c r="F45" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="4">
+        <v>744</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1275</v>
+      </c>
+      <c r="E46" s="4">
+        <v>164</v>
+      </c>
+      <c r="F46" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="4">
+        <v>926</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1195</v>
+      </c>
+      <c r="E47" s="4">
+        <v>59</v>
+      </c>
+      <c r="F47" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="4">
+        <v>3584</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1761</v>
+      </c>
+      <c r="E48" s="4">
+        <v>97</v>
+      </c>
+      <c r="F48" s="4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" s="4">
+        <v>3958</v>
+      </c>
+      <c r="D49" s="4">
+        <v>801</v>
+      </c>
+      <c r="E49" s="4">
+        <v>45</v>
+      </c>
+      <c r="F49" s="4">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" s="4">
+        <v>657</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2901</v>
+      </c>
+      <c r="E50" s="4">
+        <v>2289</v>
+      </c>
+      <c r="F50" s="4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" s="4">
+        <v>3436</v>
+      </c>
+      <c r="D51" s="4">
+        <v>741</v>
+      </c>
+      <c r="E51" s="4">
+        <v>268</v>
+      </c>
+      <c r="F51" s="4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1246</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1684</v>
+      </c>
+      <c r="E52" s="4">
+        <v>207</v>
+      </c>
+      <c r="F52" s="4">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1526</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1683</v>
+      </c>
+      <c r="E53" s="4">
+        <v>205</v>
+      </c>
+      <c r="F53" s="4">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1803</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1680</v>
+      </c>
+      <c r="E54" s="4">
+        <v>205</v>
+      </c>
+      <c r="F54" s="4">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="4">
+        <v>2675</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1676</v>
+      </c>
+      <c r="E55" s="4">
+        <v>112</v>
+      </c>
+      <c r="F55" s="4">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="4">
+        <v>854</v>
+      </c>
+      <c r="D56" s="4">
+        <v>559</v>
+      </c>
+      <c r="E56" s="4">
+        <v>124</v>
+      </c>
+      <c r="F56" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="4">
+        <v>1778</v>
+      </c>
+      <c r="D57" s="4">
+        <v>733</v>
+      </c>
+      <c r="E57" s="4">
+        <v>116</v>
+      </c>
+      <c r="F57" s="4">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="4">
+        <v>1546</v>
+      </c>
+      <c r="D58" s="4">
+        <v>732</v>
+      </c>
+      <c r="E58" s="4">
+        <v>117</v>
+      </c>
+      <c r="F58" s="4">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="4">
+        <v>1314</v>
+      </c>
+      <c r="D59" s="4">
+        <v>733</v>
+      </c>
+      <c r="E59" s="4">
+        <v>118</v>
+      </c>
+      <c r="F59" s="4">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1084</v>
+      </c>
+      <c r="D60" s="4">
+        <v>736</v>
+      </c>
+      <c r="E60" s="4">
+        <v>118</v>
+      </c>
+      <c r="F60" s="4">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="4">
+        <v>806</v>
+      </c>
+      <c r="D61" s="4">
+        <v>723</v>
+      </c>
+      <c r="E61" s="4">
+        <v>113</v>
+      </c>
+      <c r="F61" s="4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="4">
+        <v>2547</v>
+      </c>
+      <c r="D62" s="4">
+        <v>608</v>
+      </c>
+      <c r="E62" s="4">
+        <v>116</v>
+      </c>
+      <c r="F62" s="4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="4">
+        <v>2379</v>
+      </c>
+      <c r="D63" s="4">
+        <v>2533</v>
+      </c>
+      <c r="E63" s="4">
+        <v>75</v>
+      </c>
+      <c r="F63" s="4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="4">
+        <v>2193</v>
+      </c>
+      <c r="D64" s="4">
+        <v>2393</v>
+      </c>
+      <c r="E64" s="4">
+        <v>78</v>
+      </c>
+      <c r="F64" s="4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="4">
+        <v>2547</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1231</v>
+      </c>
+      <c r="E65" s="4">
+        <v>113</v>
+      </c>
+      <c r="F65" s="4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="4">
+        <v>1249</v>
+      </c>
+      <c r="D66" s="4">
+        <v>2199</v>
+      </c>
+      <c r="E66" s="4">
+        <v>139</v>
+      </c>
+      <c r="F66" s="4">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="4">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="G32" s="4">
-        <v>953</v>
-      </c>
-      <c r="H32" s="4">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="4">
-        <v>2089</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1342</v>
-      </c>
-      <c r="E33" s="4">
-        <f t="shared" si="0"/>
-        <v>103</v>
-      </c>
-      <c r="F33" s="4">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="G33" s="4">
-        <v>2192</v>
-      </c>
-      <c r="H33" s="4">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="4">
-        <v>3143</v>
-      </c>
-      <c r="D34" s="4">
-        <v>1605</v>
-      </c>
-      <c r="E34" s="4">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="F34" s="4">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="G34" s="4">
-        <v>3226</v>
-      </c>
-      <c r="H34" s="4">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C35" s="4">
-        <v>3530</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1488</v>
-      </c>
-      <c r="E35" s="4">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="F35" s="4">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="G35" s="4">
-        <v>3617</v>
-      </c>
-      <c r="H35" s="4">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C36" s="4">
-        <v>3419</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1490</v>
-      </c>
-      <c r="E36" s="4">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="F36" s="4">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="G36" s="4">
-        <v>3503</v>
-      </c>
-      <c r="H36" s="4">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C37" s="4">
-        <v>3420</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1371</v>
-      </c>
-      <c r="E37" s="4">
-        <f t="shared" ref="E37:E68" si="2">G37-C37</f>
-        <v>81</v>
-      </c>
-      <c r="F37" s="4">
-        <f t="shared" ref="F37:F68" si="3">H37-D37</f>
-        <v>27</v>
-      </c>
-      <c r="G37" s="4">
-        <v>3501</v>
-      </c>
-      <c r="H37" s="4">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" s="4">
-        <v>3529</v>
-      </c>
-      <c r="D38" s="4">
-        <v>1371</v>
-      </c>
-      <c r="E38" s="4">
-        <f t="shared" si="2"/>
-        <v>88</v>
-      </c>
-      <c r="F38" s="4">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="G38" s="4">
-        <v>3617</v>
-      </c>
-      <c r="H38" s="4">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="4">
-        <v>2774</v>
-      </c>
-      <c r="D39" s="4">
-        <v>938</v>
-      </c>
-      <c r="E39" s="4">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="F39" s="4">
-        <f t="shared" si="3"/>
+      <c r="C67" s="4">
+        <v>3232</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1331</v>
+      </c>
+      <c r="E67" s="4">
+        <v>170</v>
+      </c>
+      <c r="F67" s="4">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="4">
+        <v>2880</v>
+      </c>
+      <c r="D68" s="4">
+        <v>726</v>
+      </c>
+      <c r="E68" s="4">
+        <v>173</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" s="4">
+        <v>1895</v>
+      </c>
+      <c r="D69" s="4">
+        <v>730</v>
+      </c>
+      <c r="E69" s="4">
+        <v>113</v>
+      </c>
+      <c r="F69" s="4">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G39" s="4">
-        <v>2805</v>
-      </c>
-      <c r="H39" s="4">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="4">
-        <v>2831</v>
-      </c>
-      <c r="D40" s="4">
-        <v>939</v>
-      </c>
-      <c r="E40" s="4">
-        <f t="shared" si="2"/>
+      <c r="C70" s="4">
+        <v>1664</v>
+      </c>
+      <c r="D70" s="4">
+        <v>733</v>
+      </c>
+      <c r="E70" s="4">
+        <v>113</v>
+      </c>
+      <c r="F70" s="4">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="4">
+        <v>1432</v>
+      </c>
+      <c r="D71" s="4">
+        <v>734</v>
+      </c>
+      <c r="E71" s="4">
+        <v>113</v>
+      </c>
+      <c r="F71" s="4">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="4">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="G40" s="4">
-        <v>2873</v>
-      </c>
-      <c r="H40" s="4">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" s="4">
-        <v>3060</v>
-      </c>
-      <c r="D41" s="4">
-        <v>636</v>
-      </c>
-      <c r="E41" s="4">
-        <f t="shared" si="2"/>
+      <c r="C72" s="4">
+        <v>1199</v>
+      </c>
+      <c r="D72" s="4">
+        <v>733</v>
+      </c>
+      <c r="E72" s="4">
+        <v>116</v>
+      </c>
+      <c r="F72" s="4">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F41" s="4">
-        <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="G41" s="4">
-        <v>3103</v>
-      </c>
-      <c r="H41" s="4">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" s="4">
-        <v>3629</v>
-      </c>
-      <c r="D42" s="4">
-        <v>1370</v>
-      </c>
-      <c r="E42" s="4">
-        <f t="shared" si="2"/>
-        <v>98</v>
-      </c>
-      <c r="F42" s="4">
-        <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="G42" s="4">
-        <v>3727</v>
-      </c>
-      <c r="H42" s="4">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" s="4">
-        <v>3064</v>
-      </c>
-      <c r="D43" s="4">
-        <v>1604</v>
-      </c>
-      <c r="E43" s="4">
-        <f t="shared" si="2"/>
-        <v>77</v>
-      </c>
-      <c r="F43" s="4">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="G43" s="4">
-        <v>3141</v>
-      </c>
-      <c r="H43" s="4">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" s="4">
-        <v>2731</v>
-      </c>
-      <c r="D44" s="4">
-        <v>936</v>
-      </c>
-      <c r="E44" s="4">
-        <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="F44" s="4">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="G44" s="4">
-        <v>2770</v>
-      </c>
-      <c r="H44" s="4">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" s="4">
-        <v>2986</v>
-      </c>
-      <c r="D45" s="4">
-        <v>623</v>
-      </c>
-      <c r="E45" s="4">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="F45" s="4">
-        <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="G45" s="4">
-        <v>3048</v>
-      </c>
-      <c r="H45" s="4">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" s="4">
-        <v>2307</v>
-      </c>
-      <c r="D46" s="4">
-        <v>610</v>
-      </c>
-      <c r="E46" s="4">
-        <f t="shared" si="2"/>
-        <v>127</v>
-      </c>
-      <c r="F46" s="4">
-        <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="G46" s="4">
-        <v>2434</v>
-      </c>
-      <c r="H46" s="4">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="4">
-        <v>745</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1308</v>
-      </c>
-      <c r="E47" s="4">
-        <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="F47" s="4">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="G47" s="4">
-        <v>885</v>
-      </c>
-      <c r="H47" s="4">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" s="4">
-        <v>930</v>
-      </c>
-      <c r="D48" s="4">
-        <v>1216</v>
-      </c>
-      <c r="E48" s="4">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="F48" s="4">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="G48" s="4">
-        <v>982</v>
-      </c>
-      <c r="H48" s="4">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C49" s="4">
-        <v>3587</v>
-      </c>
-      <c r="D49" s="4">
-        <v>1766</v>
-      </c>
-      <c r="E49" s="4">
-        <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="F49" s="4">
-        <f t="shared" si="3"/>
-        <v>114</v>
-      </c>
-      <c r="G49" s="4">
-        <v>3682</v>
-      </c>
-      <c r="H49" s="4">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="4">
-        <v>1248</v>
-      </c>
-      <c r="D50" s="4">
-        <v>1682</v>
-      </c>
-      <c r="E50" s="4">
-        <f t="shared" si="2"/>
-        <v>206</v>
-      </c>
-      <c r="F50" s="4">
-        <f t="shared" si="3"/>
-        <v>351</v>
-      </c>
-      <c r="G50" s="4">
-        <v>1454</v>
-      </c>
-      <c r="H50" s="4">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="4">
-        <v>1525</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1683</v>
-      </c>
-      <c r="E51" s="4">
-        <f t="shared" si="2"/>
-        <v>204</v>
-      </c>
-      <c r="F51" s="4">
-        <f t="shared" si="3"/>
-        <v>349</v>
-      </c>
-      <c r="G51" s="4">
-        <v>1729</v>
-      </c>
-      <c r="H51" s="4">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="4">
-        <v>1804</v>
-      </c>
-      <c r="D52" s="4">
-        <v>1681</v>
-      </c>
-      <c r="E52" s="4">
-        <f t="shared" si="2"/>
-        <v>203</v>
-      </c>
-      <c r="F52" s="4">
-        <f t="shared" si="3"/>
-        <v>348</v>
-      </c>
-      <c r="G52" s="4">
-        <v>2007</v>
-      </c>
-      <c r="H52" s="4">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="4">
-        <v>2675</v>
-      </c>
-      <c r="D53" s="4">
-        <v>1676</v>
-      </c>
-      <c r="E53" s="4">
-        <f t="shared" si="2"/>
-        <v>114</v>
-      </c>
-      <c r="F53" s="4">
-        <f t="shared" si="3"/>
-        <v>349</v>
-      </c>
-      <c r="G53" s="4">
-        <v>2789</v>
-      </c>
-      <c r="H53" s="4">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="4">
-        <v>860</v>
-      </c>
-      <c r="D54" s="4">
-        <v>560</v>
-      </c>
-      <c r="E54" s="4">
-        <f t="shared" si="2"/>
-        <v>107</v>
-      </c>
-      <c r="F54" s="4">
-        <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="G54" s="4">
-        <v>967</v>
-      </c>
-      <c r="H54" s="4">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="4">
-        <v>1776</v>
-      </c>
-      <c r="D55" s="4">
-        <v>732</v>
-      </c>
-      <c r="E55" s="4">
-        <f t="shared" si="2"/>
-        <v>119</v>
-      </c>
-      <c r="F55" s="4">
-        <f t="shared" si="3"/>
-        <v>537</v>
-      </c>
-      <c r="G55" s="4">
-        <v>1895</v>
-      </c>
-      <c r="H55" s="4">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C56" s="4">
-        <v>1543</v>
-      </c>
-      <c r="D56" s="4">
-        <v>733</v>
-      </c>
-      <c r="E56" s="4">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="F56" s="4">
-        <f t="shared" si="3"/>
-        <v>535</v>
-      </c>
-      <c r="G56" s="4">
-        <v>1663</v>
-      </c>
-      <c r="H56" s="4">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="4">
-        <v>1315</v>
-      </c>
-      <c r="D57" s="4">
-        <v>734</v>
-      </c>
-      <c r="E57" s="4">
-        <f t="shared" si="2"/>
-        <v>116</v>
-      </c>
-      <c r="F57" s="4">
-        <f t="shared" si="3"/>
-        <v>535</v>
-      </c>
-      <c r="G57" s="4">
-        <v>1431</v>
-      </c>
-      <c r="H57" s="4">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C58" s="4">
-        <v>1082</v>
-      </c>
-      <c r="D58" s="4">
-        <v>735</v>
-      </c>
-      <c r="E58" s="4">
-        <f t="shared" si="2"/>
-        <v>119</v>
-      </c>
-      <c r="F58" s="4">
-        <f t="shared" si="3"/>
-        <v>536</v>
-      </c>
-      <c r="G58" s="4">
-        <v>1201</v>
-      </c>
-      <c r="H58" s="4">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="4">
-        <v>804</v>
-      </c>
-      <c r="D59" s="4">
-        <v>724</v>
-      </c>
-      <c r="E59" s="4">
-        <f t="shared" si="2"/>
-        <v>114</v>
-      </c>
-      <c r="F59" s="4">
-        <f t="shared" si="3"/>
-        <v>212</v>
-      </c>
-      <c r="G59" s="4">
-        <v>918</v>
-      </c>
-      <c r="H59" s="4">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="4">
-        <v>2549</v>
-      </c>
-      <c r="D60" s="4">
-        <v>611</v>
-      </c>
-      <c r="E60" s="4">
-        <f t="shared" si="2"/>
-        <v>113</v>
-      </c>
-      <c r="F60" s="4">
-        <f t="shared" si="3"/>
+      <c r="C73" s="4">
+        <v>805</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1007</v>
+      </c>
+      <c r="E73" s="4">
+        <v>115</v>
+      </c>
+      <c r="F73" s="4">
         <v>209</v>
       </c>
-      <c r="G60" s="4">
-        <v>2662</v>
-      </c>
-      <c r="H60" s="4">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61" s="4">
-        <v>2193</v>
-      </c>
-      <c r="D61" s="4">
-        <v>2392</v>
-      </c>
-      <c r="E61" s="4">
-        <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="F61" s="4">
-        <f t="shared" si="3"/>
-        <v>116</v>
-      </c>
-      <c r="G61" s="4">
-        <v>2269</v>
-      </c>
-      <c r="H61" s="4">
-        <v>2508</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C62" s="4">
-        <v>2378</v>
-      </c>
-      <c r="D62" s="4">
-        <v>2534</v>
-      </c>
-      <c r="E62" s="4">
-        <f t="shared" si="2"/>
-        <v>77</v>
-      </c>
-      <c r="F62" s="4">
-        <f t="shared" si="3"/>
-        <v>116</v>
-      </c>
-      <c r="G62" s="4">
-        <v>2455</v>
-      </c>
-      <c r="H62" s="4">
-        <v>2650</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C63" s="4">
-        <v>2548</v>
-      </c>
-      <c r="D63" s="4">
-        <v>1233</v>
-      </c>
-      <c r="E63" s="4">
-        <f t="shared" si="2"/>
-        <v>113</v>
-      </c>
-      <c r="F63" s="4">
-        <f t="shared" si="3"/>
-        <v>113</v>
-      </c>
-      <c r="G63" s="4">
-        <v>2661</v>
-      </c>
-      <c r="H63" s="4">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64" s="4">
-        <v>1249</v>
-      </c>
-      <c r="D64" s="4">
-        <v>2198</v>
-      </c>
-      <c r="E64" s="4">
-        <f t="shared" si="2"/>
-        <v>136</v>
-      </c>
-      <c r="F64" s="4">
-        <f t="shared" si="3"/>
-        <v>403</v>
-      </c>
-      <c r="G64" s="4">
-        <v>1385</v>
-      </c>
-      <c r="H64" s="4">
-        <v>2601</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C65" s="4">
-        <v>3235</v>
-      </c>
-      <c r="D65" s="4">
-        <v>1333</v>
-      </c>
-      <c r="E65" s="4">
-        <f t="shared" si="2"/>
-        <v>168</v>
-      </c>
-      <c r="F65" s="4">
-        <f t="shared" si="3"/>
-        <v>692</v>
-      </c>
-      <c r="G65" s="4">
-        <v>3403</v>
-      </c>
-      <c r="H65" s="4">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" s="4">
-        <v>2882</v>
-      </c>
-      <c r="D66" s="4">
-        <v>728</v>
-      </c>
-      <c r="E66" s="4">
-        <f t="shared" si="2"/>
-        <v>171</v>
-      </c>
-      <c r="F66" s="4">
-        <f t="shared" si="3"/>
-        <v>1133</v>
-      </c>
-      <c r="G66" s="4">
-        <v>3053</v>
-      </c>
-      <c r="H66" s="4">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C67" s="4">
-        <v>1894</v>
-      </c>
-      <c r="D67" s="4">
-        <v>731</v>
-      </c>
-      <c r="E67" s="4">
-        <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="F67" s="4">
-        <f t="shared" si="3"/>
-        <v>536</v>
-      </c>
-      <c r="G67" s="4">
-        <v>2009</v>
-      </c>
-      <c r="H67" s="4">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C68" s="4">
-        <v>1663</v>
-      </c>
-      <c r="D68" s="4">
-        <v>734</v>
-      </c>
-      <c r="E68" s="4">
-        <f t="shared" si="2"/>
-        <v>113</v>
-      </c>
-      <c r="F68" s="4">
-        <f t="shared" si="3"/>
-        <v>535</v>
-      </c>
-      <c r="G68" s="4">
-        <v>1776</v>
-      </c>
-      <c r="H68" s="4">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C69" s="4">
-        <v>1431</v>
-      </c>
-      <c r="D69" s="4">
-        <v>734</v>
-      </c>
-      <c r="E69" s="4">
-        <f t="shared" ref="E69:E78" si="4">G69-C69</f>
-        <v>115</v>
-      </c>
-      <c r="F69" s="4">
-        <f t="shared" ref="F69:F78" si="5">H69-D69</f>
-        <v>535</v>
-      </c>
-      <c r="G69" s="4">
-        <v>1546</v>
-      </c>
-      <c r="H69" s="4">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C70" s="4">
-        <v>1199</v>
-      </c>
-      <c r="D70" s="4">
-        <v>736</v>
-      </c>
-      <c r="E70" s="4">
-        <f t="shared" si="4"/>
-        <v>115</v>
-      </c>
-      <c r="F70" s="4">
-        <f t="shared" si="5"/>
-        <v>534</v>
-      </c>
-      <c r="G70" s="4">
-        <v>1314</v>
-      </c>
-      <c r="H70" s="4">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C71" s="4">
-        <v>806</v>
-      </c>
-      <c r="D71" s="4">
-        <v>1005</v>
-      </c>
-      <c r="E71" s="4">
-        <f t="shared" si="4"/>
-        <v>113</v>
-      </c>
-      <c r="F71" s="4">
-        <f t="shared" si="5"/>
-        <v>209</v>
-      </c>
-      <c r="G71" s="4">
-        <v>919</v>
-      </c>
-      <c r="H71" s="4">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B72" s="10" t="s">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C72" s="4">
-        <v>2193</v>
-      </c>
-      <c r="D72" s="4">
-        <v>1234</v>
-      </c>
-      <c r="E72" s="4">
-        <f t="shared" si="4"/>
-        <v>203</v>
-      </c>
-      <c r="F72" s="4">
-        <f t="shared" si="5"/>
-        <v>115</v>
-      </c>
-      <c r="G72" s="4">
-        <v>2396</v>
-      </c>
-      <c r="H72" s="4">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C73" s="4">
-        <v>546</v>
-      </c>
-      <c r="D73" s="4">
-        <v>1897</v>
-      </c>
-      <c r="E73" s="4">
-        <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-      <c r="F73" s="4">
-        <f t="shared" si="5"/>
-        <v>85</v>
-      </c>
-      <c r="G73" s="4">
-        <v>686</v>
-      </c>
-      <c r="H73" s="4">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="C74" s="4">
-        <v>544</v>
+        <v>2194</v>
       </c>
       <c r="D74" s="4">
-        <v>2358</v>
+        <v>1236</v>
       </c>
       <c r="E74" s="4">
-        <f t="shared" si="4"/>
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="F74" s="4">
-        <f t="shared" si="5"/>
-        <v>92</v>
-      </c>
-      <c r="G74" s="4">
-        <v>677</v>
-      </c>
-      <c r="H74" s="4">
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C75" s="4">
-        <v>2553</v>
+        <v>531</v>
       </c>
       <c r="D75" s="4">
-        <v>2023</v>
+        <v>1885</v>
       </c>
       <c r="E75" s="4">
-        <f t="shared" si="4"/>
-        <v>113</v>
+        <v>228</v>
       </c>
       <c r="F75" s="4">
-        <f t="shared" si="5"/>
-        <v>69</v>
-      </c>
-      <c r="G75" s="4">
-        <v>2666</v>
-      </c>
-      <c r="H75" s="4">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>105</v>
       </c>
@@ -4276,86 +3721,39 @@
         <v>45</v>
       </c>
       <c r="C76" s="4">
-        <v>2553</v>
+        <v>532</v>
       </c>
       <c r="D76" s="4">
-        <v>2023</v>
+        <v>2348</v>
       </c>
       <c r="E76" s="4">
-        <f t="shared" ref="E76" si="6">G76-C76</f>
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="F76" s="4">
-        <f t="shared" ref="F76" si="7">H76-D76</f>
-        <v>69</v>
-      </c>
-      <c r="G76" s="4">
-        <v>2666</v>
-      </c>
-      <c r="H76" s="4">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>171</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C77" s="4">
-        <v>1248</v>
+        <v>2545</v>
       </c>
       <c r="D77" s="4">
-        <v>1682</v>
+        <v>2004</v>
       </c>
       <c r="E77" s="4">
-        <f t="shared" si="4"/>
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="F77" s="4">
-        <f t="shared" si="5"/>
-        <v>351</v>
-      </c>
-      <c r="G77" s="4">
-        <v>1454</v>
-      </c>
-      <c r="H77" s="4">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>170</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C78" s="4">
-        <v>1525</v>
-      </c>
-      <c r="D78" s="4">
-        <v>1683</v>
-      </c>
-      <c r="E78" s="4">
-        <f t="shared" si="4"/>
-        <v>204</v>
-      </c>
-      <c r="F78" s="4">
-        <f t="shared" si="5"/>
-        <v>349</v>
-      </c>
-      <c r="G78" s="4">
-        <v>1729</v>
-      </c>
-      <c r="H78" s="4">
-        <v>2032</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:H75">
-    <sortCondition ref="B9:B75"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4375,13 +3773,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -4402,10 +3800,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4428,13 +3826,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -4447,7 +3845,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -4455,10 +3853,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -4466,10 +3864,10 @@
         <v>23</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -4477,10 +3875,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -4488,10 +3886,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Commodore 64 Breadbin/250407/Data_250407.xlsx
+++ b/Data/Commodore 64 Breadbin/250407/Data_250407.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64 Breadbin\250407\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\Commodore 64 Breadbin\250407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8729A2-70F8-4439-9099-1EF2B091C068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D65B14-189A-4C04-9EAD-5192C555E6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Images" sheetId="5" r:id="rId1"/>
+    <sheet name="Board images" sheetId="5" r:id="rId1"/>
     <sheet name="Components" sheetId="1" r:id="rId2"/>
     <sheet name="Component highlights" sheetId="6" r:id="rId3"/>
     <sheet name="Component local files" sheetId="7" r:id="rId4"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="196">
   <si>
     <t>CIA 1</t>
   </si>
@@ -606,25 +606,31 @@
     <t>Image and component highlight bounds</t>
   </si>
   <si>
-    <t>Images\Schematics 2 of 2 (251138).gif</t>
-  </si>
-  <si>
     <t>Images\C64 250407 PCB Replica.1.1.F.png</t>
   </si>
   <si>
     <t>Images\C64 250407 PCB Replica.1.1.B.png</t>
   </si>
   <si>
+    <t>Images\Board Layout 250407-04 NTSC.jpg</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>CN5</t>
+  </si>
+  <si>
+    <t>CN6</t>
+  </si>
+  <si>
+    <t>RF Modulator</t>
+  </si>
+  <si>
     <t>Images\Schematics 1 of 2 (251138).png</t>
   </si>
   <si>
-    <t>CN5</t>
-  </si>
-  <si>
-    <t>CN6</t>
-  </si>
-  <si>
-    <t>RF Modulator</t>
+    <t>Images\Schematics 2 of 2 (251138).png</t>
   </si>
 </sst>
 </file>
@@ -766,15 +772,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{FA6AF091-3410-4C32-9089-BD1AA5556E46}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{5AF7675F-D629-42F4-9422-74CDA1548280}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1086,11 +1092,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB56770-8233-4B8D-A81F-EDDC9713B054}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1122,12 +1126,12 @@
         <v>175</v>
       </c>
       <c r="B3" s="12"/>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:8" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -1154,7 +1158,7 @@
         <v>105</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>153</v>
@@ -1177,7 +1181,7 @@
         <v>106</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>153</v>
@@ -1200,7 +1204,7 @@
         <v>170</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>153</v>
@@ -1223,7 +1227,7 @@
         <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>153</v>
@@ -1235,6 +1239,26 @@
         <v>0.3</v>
       </c>
       <c r="F8" s="11">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="F9" s="11">
         <v>0.65</v>
       </c>
     </row>
@@ -1254,7 +1278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2243,7 +2267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD30A18-04B8-42E0-9E13-F4ED24029528}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2295,19 +2319,19 @@
       <c r="A5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="22">
         <v>1178</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <v>2035</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>81</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <v>91</v>
       </c>
       <c r="G5" s="4"/>
@@ -2317,19 +2341,19 @@
       <c r="A6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="22">
         <v>1461</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="22">
         <v>2036</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="22">
         <v>79</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="22">
         <v>64</v>
       </c>
     </row>
@@ -2337,19 +2361,19 @@
       <c r="A7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="22">
         <v>1737</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="22">
         <v>2038</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="22">
         <v>73</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="22">
         <v>81</v>
       </c>
     </row>
@@ -2357,19 +2381,19 @@
       <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="22">
         <v>2549</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="22">
         <v>1649</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="22">
         <v>73</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="22">
         <v>97</v>
       </c>
     </row>
@@ -2377,19 +2401,19 @@
       <c r="A9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="22">
         <v>3077</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="22">
         <v>1723</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="22">
         <v>110</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="22">
         <v>79</v>
       </c>
     </row>
@@ -2397,19 +2421,19 @@
       <c r="A10" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="22">
         <v>3073</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="22">
         <v>1811</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="22">
         <v>114</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="22">
         <v>73</v>
       </c>
     </row>
@@ -2417,19 +2441,19 @@
       <c r="A11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="22">
         <v>3468</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="22">
         <v>1932</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="22">
         <v>84</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="22">
         <v>90</v>
       </c>
     </row>
@@ -2437,19 +2461,19 @@
       <c r="A12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="22">
         <v>3739</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="22">
         <v>1690</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="22">
         <v>119</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="22">
         <v>137</v>
       </c>
     </row>
@@ -2457,19 +2481,19 @@
       <c r="A13" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="22">
         <v>2020</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="22">
         <v>639</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="22">
         <v>113</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="22">
         <v>85</v>
       </c>
     </row>
@@ -2477,19 +2501,19 @@
       <c r="A14" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="22">
         <v>3314</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="22">
         <v>642</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="22">
         <v>101</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="22">
         <v>82</v>
       </c>
     </row>
@@ -2497,19 +2521,19 @@
       <c r="A15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="22">
         <v>3424</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="22">
         <v>640</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="22">
         <v>85</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="22">
         <v>78</v>
       </c>
     </row>
@@ -2517,19 +2541,19 @@
       <c r="A16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="22">
         <v>1829</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="22">
         <v>2756</v>
       </c>
-      <c r="E16" s="4">
-        <v>125</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="E16" s="22">
+        <v>125</v>
+      </c>
+      <c r="F16" s="22">
         <v>97</v>
       </c>
     </row>
@@ -2537,19 +2561,19 @@
       <c r="A17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="22">
         <v>1762</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="22">
         <v>649</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="22">
         <v>103</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="22">
         <v>77</v>
       </c>
     </row>
@@ -2557,19 +2581,19 @@
       <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="22">
         <v>1531</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="22">
         <v>646</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="22">
         <v>102</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="22">
         <v>73</v>
       </c>
     </row>
@@ -2577,19 +2601,19 @@
       <c r="A19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="22">
         <v>1298</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="22">
         <v>642</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="22">
         <v>107</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="22">
         <v>78</v>
       </c>
     </row>
@@ -2597,19 +2621,19 @@
       <c r="A20" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="22">
         <v>1063</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="22">
         <v>644</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="22">
         <v>109</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="22">
         <v>69</v>
       </c>
     </row>
@@ -2617,19 +2641,19 @@
       <c r="A21" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="22">
         <v>912</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="22">
         <v>645</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="22">
         <v>97</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="22">
         <v>71</v>
       </c>
     </row>
@@ -2637,19 +2661,19 @@
       <c r="A22" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="22">
         <v>2495</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="22">
         <v>827</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="22">
         <v>73</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="22">
         <v>65</v>
       </c>
     </row>
@@ -2657,19 +2681,19 @@
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="22">
         <v>2239</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="22">
         <v>2303</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="22">
         <v>63</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="22">
         <v>79</v>
       </c>
     </row>
@@ -2677,19 +2701,19 @@
       <c r="A24" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="22">
         <v>2498</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="22">
         <v>1360</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="22">
         <v>77</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="22">
         <v>88</v>
       </c>
     </row>
@@ -2697,19 +2721,19 @@
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="22">
         <v>1442</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="22">
         <v>2437</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="22">
         <v>100</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="22">
         <v>64</v>
       </c>
     </row>
@@ -2717,19 +2741,19 @@
       <c r="A26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="22">
         <v>3632</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="22">
         <v>1481</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="22">
         <v>107</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="22">
         <v>85</v>
       </c>
     </row>
@@ -2737,19 +2761,19 @@
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="22">
         <v>3554</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="22">
         <v>1684</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="22">
         <v>112</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="22">
         <v>65</v>
       </c>
     </row>
@@ -2757,19 +2781,19 @@
       <c r="A28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="22">
         <v>1879</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="22">
         <v>644</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="22">
         <v>103</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="22">
         <v>74</v>
       </c>
     </row>
@@ -2777,19 +2801,19 @@
       <c r="A29" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="22">
         <v>1648</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="22">
         <v>647</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="22">
         <v>101</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="22">
         <v>71</v>
       </c>
     </row>
@@ -2797,19 +2821,19 @@
       <c r="A30" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="22">
         <v>1417</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="22">
         <v>642</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="22">
         <v>102</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="22">
         <v>77</v>
       </c>
     </row>
@@ -2817,19 +2841,19 @@
       <c r="A31" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="22">
         <v>1188</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="22">
         <v>643</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="22">
         <v>100</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="22">
         <v>71</v>
       </c>
     </row>
@@ -2837,19 +2861,19 @@
       <c r="A32" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="22">
         <v>2084</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="22">
         <v>1339</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="22">
         <v>100</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="22">
         <v>59</v>
       </c>
     </row>
@@ -2857,19 +2881,19 @@
       <c r="A33" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="22">
         <v>3148</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="22">
         <v>1596</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="22">
         <v>82</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="22">
         <v>78</v>
       </c>
     </row>
@@ -2877,19 +2901,19 @@
       <c r="A34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="22">
         <v>3527</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="22">
         <v>1481</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="22">
         <v>100</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="22">
         <v>62</v>
       </c>
     </row>
@@ -2897,19 +2921,19 @@
       <c r="A35" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="22">
         <v>3418</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="22">
         <v>1484</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="22">
         <v>91</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="22">
         <v>61</v>
       </c>
     </row>
@@ -2917,19 +2941,19 @@
       <c r="A36" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="22">
         <v>3416</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="22">
         <v>1367</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="22">
         <v>90</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="22">
         <v>54</v>
       </c>
     </row>
@@ -2937,19 +2961,19 @@
       <c r="A37" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="22">
         <v>3534</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="22">
         <v>1360</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="22">
         <v>90</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="22">
         <v>62</v>
       </c>
     </row>
@@ -2957,19 +2981,19 @@
       <c r="A38" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="22">
         <v>2771</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="22">
         <v>919</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="22">
         <v>36</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="22">
         <v>115</v>
       </c>
     </row>
@@ -2977,19 +3001,19 @@
       <c r="A39" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="22">
         <v>2809</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="22">
         <v>936</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="22">
         <v>61</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="22">
         <v>75</v>
       </c>
     </row>
@@ -2997,19 +3021,19 @@
       <c r="A40" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="22">
         <v>3058</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="22">
         <v>643</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="22">
         <v>96</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="22">
         <v>68</v>
       </c>
     </row>
@@ -3017,19 +3041,19 @@
       <c r="A41" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="22">
         <v>3629</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="22">
         <v>1360</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="22">
         <v>109</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="22">
         <v>83</v>
       </c>
     </row>
@@ -3037,19 +3061,19 @@
       <c r="A42" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="22">
         <v>3061</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="22">
         <v>1598</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="22">
         <v>80</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="22">
         <v>78</v>
       </c>
     </row>
@@ -3057,19 +3081,19 @@
       <c r="A43" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="22">
         <v>2681</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="22">
         <v>921</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="22">
         <v>87</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="22">
         <v>86</v>
       </c>
     </row>
@@ -3077,19 +3101,19 @@
       <c r="A44" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="22">
         <v>2977</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="22">
         <v>619</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="22">
         <v>73</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="22">
         <v>89</v>
       </c>
     </row>
@@ -3097,19 +3121,19 @@
       <c r="A45" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="22">
         <v>2303</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="22">
         <v>601</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="22">
         <v>141</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="22">
         <v>107</v>
       </c>
     </row>
@@ -3117,19 +3141,19 @@
       <c r="A46" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="22">
         <v>744</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="22">
         <v>1275</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="22">
         <v>164</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="22">
         <v>103</v>
       </c>
     </row>
@@ -3137,19 +3161,19 @@
       <c r="A47" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="22">
         <v>926</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="22">
         <v>1195</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="22">
         <v>59</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="22">
         <v>87</v>
       </c>
     </row>
@@ -3157,19 +3181,19 @@
       <c r="A48" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="22">
         <v>3584</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="22">
         <v>1761</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="22">
         <v>97</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="22">
         <v>131</v>
       </c>
     </row>
@@ -3177,19 +3201,19 @@
       <c r="A49" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="22">
         <v>3958</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="22">
         <v>801</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="22">
         <v>45</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="22">
         <v>985</v>
       </c>
     </row>
@@ -3197,19 +3221,19 @@
       <c r="A50" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="22">
         <v>657</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="22">
         <v>2901</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="22">
         <v>2289</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="22">
         <v>47</v>
       </c>
     </row>
@@ -3217,19 +3241,19 @@
       <c r="A51" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="22">
         <v>3436</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="22">
         <v>741</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="22">
         <v>268</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="22">
         <v>192</v>
       </c>
     </row>
@@ -3237,19 +3261,19 @@
       <c r="A52" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="22">
         <v>1246</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="22">
         <v>1684</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="22">
         <v>207</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="22">
         <v>347</v>
       </c>
     </row>
@@ -3257,19 +3281,19 @@
       <c r="A53" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="22">
         <v>1526</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="22">
         <v>1683</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="22">
         <v>205</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="22">
         <v>348</v>
       </c>
     </row>
@@ -3277,19 +3301,19 @@
       <c r="A54" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="22">
         <v>1803</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="22">
         <v>1680</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="22">
         <v>205</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="22">
         <v>348</v>
       </c>
     </row>
@@ -3297,19 +3321,19 @@
       <c r="A55" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="22">
         <v>2675</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="22">
         <v>1676</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="22">
         <v>112</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="22">
         <v>347</v>
       </c>
     </row>
@@ -3317,19 +3341,19 @@
       <c r="A56" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="22">
         <v>854</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="22">
         <v>559</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="22">
         <v>124</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="22">
         <v>77</v>
       </c>
     </row>
@@ -3337,19 +3361,19 @@
       <c r="A57" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="22">
         <v>1778</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="22">
         <v>733</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="22">
         <v>116</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="22">
         <v>536</v>
       </c>
     </row>
@@ -3357,19 +3381,19 @@
       <c r="A58" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="22">
         <v>1546</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="22">
         <v>732</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="22">
         <v>117</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="22">
         <v>538</v>
       </c>
     </row>
@@ -3377,19 +3401,19 @@
       <c r="A59" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="22">
         <v>1314</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="22">
         <v>733</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="22">
         <v>118</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="22">
         <v>536</v>
       </c>
     </row>
@@ -3397,19 +3421,19 @@
       <c r="A60" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="22">
         <v>1084</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="22">
         <v>736</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="22">
         <v>118</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="22">
         <v>535</v>
       </c>
     </row>
@@ -3417,19 +3441,19 @@
       <c r="A61" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="22">
         <v>806</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="22">
         <v>723</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="22">
         <v>113</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="22">
         <v>212</v>
       </c>
     </row>
@@ -3437,19 +3461,19 @@
       <c r="A62" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="22">
         <v>2547</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="22">
         <v>608</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="22">
         <v>116</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="22">
         <v>213</v>
       </c>
     </row>
@@ -3457,19 +3481,19 @@
       <c r="A63" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="22">
         <v>2379</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="22">
         <v>2533</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="22">
         <v>75</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="22">
         <v>117</v>
       </c>
     </row>
@@ -3477,19 +3501,19 @@
       <c r="A64" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="22">
         <v>2193</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="22">
         <v>2393</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="22">
         <v>78</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="22">
         <v>116</v>
       </c>
     </row>
@@ -3497,19 +3521,19 @@
       <c r="A65" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="22">
         <v>2547</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="22">
         <v>1231</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="22">
         <v>113</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="22">
         <v>116</v>
       </c>
     </row>
@@ -3517,19 +3541,19 @@
       <c r="A66" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="22">
         <v>1249</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="22">
         <v>2199</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="22">
         <v>139</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="22">
         <v>401</v>
       </c>
     </row>
@@ -3537,19 +3561,19 @@
       <c r="A67" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="22">
         <v>3232</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="22">
         <v>1331</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="22">
         <v>170</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="22">
         <v>690</v>
       </c>
     </row>
@@ -3557,19 +3581,19 @@
       <c r="A68" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="22">
         <v>2880</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="22">
         <v>726</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="22">
         <v>173</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="22">
         <v>1135</v>
       </c>
     </row>
@@ -3577,19 +3601,19 @@
       <c r="A69" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="22">
         <v>1895</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="22">
         <v>730</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="22">
         <v>113</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="22">
         <v>538</v>
       </c>
     </row>
@@ -3597,19 +3621,19 @@
       <c r="A70" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="22">
         <v>1664</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="22">
         <v>733</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="22">
         <v>113</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="22">
         <v>536</v>
       </c>
     </row>
@@ -3617,19 +3641,19 @@
       <c r="A71" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="22">
         <v>1432</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="22">
         <v>734</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="22">
         <v>113</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="22">
         <v>536</v>
       </c>
     </row>
@@ -3637,19 +3661,19 @@
       <c r="A72" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="22">
         <v>1199</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="22">
         <v>733</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="22">
         <v>116</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="22">
         <v>536</v>
       </c>
     </row>
@@ -3657,19 +3681,19 @@
       <c r="A73" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="22">
         <v>805</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="22">
         <v>1007</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="22">
         <v>115</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="22">
         <v>209</v>
       </c>
     </row>
@@ -3677,19 +3701,19 @@
       <c r="A74" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="22">
         <v>2194</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="22">
         <v>1236</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="22">
         <v>201</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="22">
         <v>112</v>
       </c>
     </row>
@@ -3697,19 +3721,19 @@
       <c r="A75" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="22">
         <v>531</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="22">
         <v>1885</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="22">
         <v>228</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="22">
         <v>135</v>
       </c>
     </row>
@@ -3717,19 +3741,19 @@
       <c r="A76" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="22">
         <v>532</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="22">
         <v>2348</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="22">
         <v>184</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="22">
         <v>130</v>
       </c>
     </row>
@@ -3737,19 +3761,19 @@
       <c r="A77" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="22">
         <v>2545</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="22">
         <v>2004</v>
       </c>
-      <c r="E77" s="4">
-        <v>125</v>
-      </c>
-      <c r="F77" s="4">
+      <c r="E77" s="22">
+        <v>125</v>
+      </c>
+      <c r="F77" s="22">
         <v>128</v>
       </c>
     </row>
